--- a/TestData/Create Activity page/tc39.xlsx
+++ b/TestData/Create Activity page/tc39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\Create Activity page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA52E706-D082-437B-A83E-E5146E3AED69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670D77C-1A27-4610-B64F-CFE0A8792709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
